--- a/Database/RegisteredAccounts.xlsx
+++ b/Database/RegisteredAccounts.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Programming Coding/C#/ATM/ATM/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E832897-E47E-3F46-AC9C-8AEEF8E92102}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE73E3-5D81-A246-B8D8-DA6FE98D9524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22660" xr2:uid="{3B7EDB64-CBA8-1242-AF47-6001F7EE5C38}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +34,9 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>OpeningDate</t>
+  </si>
+  <si>
     <t>Olutunde Sokunbi</t>
   </si>
   <si>
@@ -48,39 +46,64 @@
     <t>Funke Ololade</t>
   </si>
   <si>
+    <t>Grace Amadi</t>
+  </si>
+  <si>
+    <t>Orunmila</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Aderonke</t>
+  </si>
+  <si>
     <t>Irene Ivy</t>
   </si>
   <si>
     <t>Tolani</t>
   </si>
   <si>
-    <t>Grace Amadi</t>
-  </si>
-  <si>
-    <t>Orunmila</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Aderonke</t>
+    <t>James</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)_x0000_"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,7 +116,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -105,16 +135,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,20 +217,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -202,31 +258,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -254,23 +293,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,300 +304,775 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F988FA0-CDA3-CC4E-962E-B934173EA39A}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.83203125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
         <v>1234567890</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>1234</v>
       </c>
-      <c r="D2">
-        <v>4576.5600000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="5">
+        <v>6576.56</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2345678901</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2345</v>
+      </c>
+      <c r="D3" s="4">
+        <v>890</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2320409063</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6789</v>
+      </c>
+      <c r="D4" s="4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3232323232</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4567</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4763</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4564567890</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7890</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3243</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5675675678</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2222</v>
+      </c>
+      <c r="D7" s="4">
+        <v>54523</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4545454545</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4444</v>
+      </c>
+      <c r="D8" s="4">
+        <v>245</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7881745439</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5678</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1125279384</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1111</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2345678901</v>
-      </c>
-      <c r="C3">
-        <v>2345</v>
-      </c>
-      <c r="D3">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2320409063</v>
-      </c>
-      <c r="C4">
-        <v>6789</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3232323232</v>
-      </c>
-      <c r="C5">
-        <v>4567</v>
-      </c>
-      <c r="D5">
-        <v>6763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>4564567890</v>
-      </c>
-      <c r="C6">
-        <v>7890</v>
-      </c>
-      <c r="D6">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5675675678</v>
-      </c>
-      <c r="C7">
-        <v>2222</v>
-      </c>
-      <c r="D7">
-        <v>54523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>4545454545</v>
-      </c>
-      <c r="C8">
-        <v>4444</v>
-      </c>
-      <c r="D8">
-        <v>245</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7881745439</v>
-      </c>
-      <c r="C9">
-        <v>5678</v>
-      </c>
-      <c r="D9">
+      <c r="B11" s="10">
+        <v>2701025130</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9999</v>
+      </c>
+      <c r="D11" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1125279384</v>
-      </c>
-      <c r="C10">
+      <c r="E11" s="9">
+        <v>45423.746562499997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4444444444</v>
+      </c>
+      <c r="C12" s="2">
         <v>1111</v>
       </c>
-      <c r="D10">
-        <v>100</v>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="E63" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Database/RegisteredAccounts.xlsx
+++ b/Database/RegisteredAccounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Programming Coding/C#/ATM/ATM/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE73E3-5D81-A246-B8D8-DA6FE98D9524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62CCD92-0E06-2040-84F7-C17546BA27DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
